--- a/DataFiles/PropelData.xlsx
+++ b/DataFiles/PropelData.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pativ\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>password</t>
   </si>
@@ -33,6 +29,9 @@
   </si>
   <si>
     <t>userId</t>
+  </si>
+  <si>
+    <t>anything</t>
   </si>
 </sst>
 </file>
@@ -77,9 +76,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -364,7 +364,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,8 +384,8 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1234</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -393,5 +393,6 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataFiles/PropelData.xlsx
+++ b/DataFiles/PropelData.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pativ\git\PropelAutomation\DataFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="10815"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,36 +24,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>vivek.pati@hpe.com</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
-    <t>anything</t>
+    <t>vivek</t>
+  </si>
+  <si>
+    <t>rony</t>
+  </si>
+  <si>
+    <t>alpana</t>
+  </si>
+  <si>
+    <t>sumit</t>
+  </si>
+  <si>
+    <t>sid</t>
+  </si>
+  <si>
+    <t>nikita</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>Sansa</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Cersi</t>
+  </si>
+  <si>
+    <t>Lanister</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language </t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>hindi</t>
+  </si>
+  <si>
+    <t>spanish</t>
+  </si>
+  <si>
+    <t>polish</t>
+  </si>
+  <si>
+    <t>inr</t>
+  </si>
+  <si>
+    <t>usd</t>
+  </si>
+  <si>
+    <t>pound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,17 +149,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,38 +435,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>